--- a/biology/Zoologie/Hydromys_chrysogaster/Hydromys_chrysogaster.xlsx
+++ b/biology/Zoologie/Hydromys_chrysogaster/Hydromys_chrysogaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rat d'eau australien (Hydromys chrysogaster) ou rakali est une espèce de rongeurs de la famille des muridés endémique d'Australie.
 C'est avec l'ornithorynque l'une des deux seules espèces de mammifères amphibies vivant en Australie.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 23 à 37 cm de long (avec une queue épaisse mesurant 24 à 34,5 cm) pour un poids de 340 à 1275 grammes. Il a un pelage noir ou brun avec un ventre blanc à orange. Il a des pattes arrière palmées, une fourrure imperméable, une tête aplatie, un long nez pointu, de grandes moustaches, de petits yeux et de petites oreilles. Son dos varie du brun au gris, son ventre est jaunâtre. 
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans des terriers creusés sur les berges des rivières et des lacs de l'est de l'Australie (voir carte).
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes, de poissons, de crustacés, de moules, d'escargots, de grenouilles, d'œufs et d'oiseaux.
 </t>
@@ -605,9 +623,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gouvernement australien recommande de lui donner le nom aborigène de rakali[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gouvernement australien recommande de lui donner le nom aborigène de rakali.
 </t>
         </is>
       </c>
